--- a/BalanceInfo/2.3 Harvesting.xlsx
+++ b/BalanceInfo/2.3 Harvesting.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>Race</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Stats are from Homeworld Remastered as of:</t>
+  </si>
+  <si>
+    <t>Optimally build up to 18 collectors as if it were a real game scenario (build 6 collectors on each ship). Position the mothership at the position three spawn, send carrier to the position three expansion (put 9 collectors on each patch). For vaygr you'll have 19 collectors, one extra on mothership patch.</t>
   </si>
 </sst>
 </file>
@@ -342,14 +345,14 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,7 +771,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -815,24 +818,24 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -1002,24 +1005,24 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
@@ -1257,30 +1260,29 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="18"/>
+      <c r="A42" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
+      <c r="A43" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
@@ -1290,15 +1292,8 @@
         <v>10</v>
       </c>
       <c r="C45" s="20"/>
-      <c r="D45" s="2">
-        <v>28736</v>
-      </c>
-      <c r="E45" s="15">
-        <v>28736</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
@@ -1306,15 +1301,8 @@
         <v>20</v>
       </c>
       <c r="C46" s="22"/>
-      <c r="D46" s="4">
-        <v>74584</v>
-      </c>
-      <c r="E46" s="16">
-        <v>74584</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="16"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="21"/>
@@ -1322,15 +1310,8 @@
         <v>30</v>
       </c>
       <c r="C47" s="22"/>
-      <c r="D47" s="4">
-        <v>120704</v>
-      </c>
-      <c r="E47" s="16">
-        <v>120704</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="16"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="23"/>
@@ -1338,15 +1319,8 @@
         <v>40</v>
       </c>
       <c r="C48" s="24"/>
-      <c r="D48" s="6">
-        <v>166538</v>
-      </c>
-      <c r="E48" s="25">
-        <v>166538</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="25"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
@@ -1356,15 +1330,8 @@
         <v>10</v>
       </c>
       <c r="C49" s="20"/>
-      <c r="D49" s="2">
-        <v>29346</v>
-      </c>
-      <c r="E49" s="3">
-        <v>29360</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="15"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
@@ -1372,16 +1339,8 @@
         <v>20</v>
       </c>
       <c r="C50" s="22"/>
-      <c r="D50" s="4">
-        <v>74738</v>
-      </c>
-      <c r="E50" s="5">
-        <v>74862</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="27"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="16"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="21"/>
@@ -1389,15 +1348,8 @@
         <v>30</v>
       </c>
       <c r="C51" s="22"/>
-      <c r="D51" s="4">
-        <v>119750</v>
-      </c>
-      <c r="E51" s="5">
-        <v>120164</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="16"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23"/>
@@ -1405,15 +1357,8 @@
         <v>40</v>
       </c>
       <c r="C52" s="24"/>
-      <c r="D52" s="6">
-        <v>164898</v>
-      </c>
-      <c r="E52" s="31">
-        <v>165276</v>
-      </c>
-      <c r="F52" s="26" t="s">
-        <v>6</v>
-      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="25"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
@@ -1423,15 +1368,8 @@
         <v>10</v>
       </c>
       <c r="C53" s="20"/>
-      <c r="D53" s="2">
-        <v>23500</v>
-      </c>
-      <c r="E53" s="3">
-        <v>24000</v>
-      </c>
-      <c r="F53" s="26" t="s">
-        <v>17</v>
-      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="15"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
@@ -1439,15 +1377,8 @@
         <v>20</v>
       </c>
       <c r="C54" s="22"/>
-      <c r="D54" s="4">
-        <v>77500</v>
-      </c>
-      <c r="E54" s="5">
-        <v>73800</v>
-      </c>
-      <c r="F54" s="26" t="s">
-        <v>14</v>
-      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="16"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
@@ -1455,15 +1386,8 @@
         <v>30</v>
       </c>
       <c r="C55" s="22"/>
-      <c r="D55" s="4">
-        <v>133500</v>
-      </c>
-      <c r="E55" s="5">
-        <v>123300</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>18</v>
-      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="16"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="23"/>
@@ -1471,15 +1395,8 @@
         <v>40</v>
       </c>
       <c r="C56" s="24"/>
-      <c r="D56" s="6">
-        <v>187500</v>
-      </c>
-      <c r="E56" s="31">
-        <v>173100</v>
-      </c>
-      <c r="F56" s="26" t="s">
-        <v>5</v>
-      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="25"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
@@ -1490,12 +1407,8 @@
       </c>
       <c r="C57" s="20"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="3">
-        <v>24000</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>17</v>
-      </c>
+      <c r="E57" s="15"/>
+      <c r="G57" s="26"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
@@ -1504,12 +1417,7 @@
       </c>
       <c r="C58" s="22"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="5">
-        <v>73500</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>14</v>
-      </c>
+      <c r="E58" s="16"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="21"/>
@@ -1518,12 +1426,7 @@
       </c>
       <c r="C59" s="22"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="5">
-        <v>124043</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>18</v>
-      </c>
+      <c r="E59" s="16"/>
     </row>
     <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="23"/>
@@ -1532,18 +1435,306 @@
       </c>
       <c r="C60" s="24"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="31">
+      <c r="E60" s="25"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" s="18"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="31"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="20">
+        <v>10</v>
+      </c>
+      <c r="C65" s="20"/>
+      <c r="D65" s="2">
+        <v>28736</v>
+      </c>
+      <c r="E65" s="15">
+        <v>28736</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="21"/>
+      <c r="B66" s="22">
+        <v>20</v>
+      </c>
+      <c r="C66" s="22"/>
+      <c r="D66" s="4">
+        <v>74584</v>
+      </c>
+      <c r="E66" s="16">
+        <v>74584</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="21"/>
+      <c r="B67" s="22">
+        <v>30</v>
+      </c>
+      <c r="C67" s="22"/>
+      <c r="D67" s="4">
+        <v>120704</v>
+      </c>
+      <c r="E67" s="16">
+        <v>120704</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="23"/>
+      <c r="B68" s="24">
+        <v>40</v>
+      </c>
+      <c r="C68" s="24"/>
+      <c r="D68" s="6">
+        <v>166538</v>
+      </c>
+      <c r="E68" s="25">
+        <v>166538</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="20">
+        <v>10</v>
+      </c>
+      <c r="C69" s="20"/>
+      <c r="D69" s="2">
+        <v>29346</v>
+      </c>
+      <c r="E69" s="3">
+        <v>29360</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="21"/>
+      <c r="B70" s="22">
+        <v>20</v>
+      </c>
+      <c r="C70" s="22"/>
+      <c r="D70" s="4">
+        <v>74738</v>
+      </c>
+      <c r="E70" s="5">
+        <v>74862</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="27"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="21"/>
+      <c r="B71" s="22">
+        <v>30</v>
+      </c>
+      <c r="C71" s="22"/>
+      <c r="D71" s="4">
+        <v>119750</v>
+      </c>
+      <c r="E71" s="5">
+        <v>120164</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="23"/>
+      <c r="B72" s="24">
+        <v>40</v>
+      </c>
+      <c r="C72" s="24"/>
+      <c r="D72" s="6">
+        <v>164898</v>
+      </c>
+      <c r="E72" s="29">
+        <v>165276</v>
+      </c>
+      <c r="F72" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="20">
+        <v>10</v>
+      </c>
+      <c r="C73" s="20"/>
+      <c r="D73" s="2">
+        <v>23500</v>
+      </c>
+      <c r="E73" s="3">
+        <v>24000</v>
+      </c>
+      <c r="F73" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="21"/>
+      <c r="B74" s="22">
+        <v>20</v>
+      </c>
+      <c r="C74" s="22"/>
+      <c r="D74" s="4">
+        <v>77500</v>
+      </c>
+      <c r="E74" s="5">
+        <v>73800</v>
+      </c>
+      <c r="F74" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="21"/>
+      <c r="B75" s="22">
+        <v>30</v>
+      </c>
+      <c r="C75" s="22"/>
+      <c r="D75" s="4">
+        <v>133500</v>
+      </c>
+      <c r="E75" s="5">
+        <v>123300</v>
+      </c>
+      <c r="F75" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="23"/>
+      <c r="B76" s="24">
+        <v>40</v>
+      </c>
+      <c r="C76" s="24"/>
+      <c r="D76" s="6">
+        <v>187500</v>
+      </c>
+      <c r="E76" s="29">
+        <v>173100</v>
+      </c>
+      <c r="F76" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="20">
+        <v>10</v>
+      </c>
+      <c r="C77" s="20"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="3">
+        <v>24000</v>
+      </c>
+      <c r="F77" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="21"/>
+      <c r="B78" s="22">
+        <v>20</v>
+      </c>
+      <c r="C78" s="22"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="5">
+        <v>73500</v>
+      </c>
+      <c r="F78" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="21"/>
+      <c r="B79" s="22">
+        <v>30</v>
+      </c>
+      <c r="C79" s="22"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="5">
+        <v>124043</v>
+      </c>
+      <c r="F79" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="23"/>
+      <c r="B80" s="24">
+        <v>40</v>
+      </c>
+      <c r="C80" s="24"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="29">
         <v>174000</v>
       </c>
-      <c r="F60" s="26" t="s">
+      <c r="F80" s="26" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A23:G24"/>
+    <mergeCell ref="A63:G64"/>
+    <mergeCell ref="A3:G4"/>
     <mergeCell ref="A43:G44"/>
-    <mergeCell ref="A3:G4"/>
   </mergeCells>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/BalanceInfo/2.3 Harvesting.xlsx
+++ b/BalanceInfo/2.3 Harvesting.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>Race</t>
   </si>
@@ -37,45 +37,27 @@
     <t>addAbility(NewShipType,"Harvest",1,200,8,300);</t>
   </si>
   <si>
-    <t>addAbility(NewShipType,"Harvest",1,300,9.1,400);</t>
-  </si>
-  <si>
-    <t>addAbility(NewShipType,"Harvest",1,200,8.1,300);</t>
-  </si>
-  <si>
     <t>Minutes</t>
   </si>
   <si>
     <t>Vgr</t>
   </si>
   <si>
-    <t>addAbility(NewShipType,"Harvest",1,300,9,400);</t>
-  </si>
-  <si>
     <t>Tested on Crimsons Bond position three with 3k starting Rus, High RU multiplier. Stay on normal stance. Save the game at exactly 10minutes. Write down your actual RU as displayed in game at 10, 20, and 30 minutes.</t>
   </si>
   <si>
     <t>Optimally build up to 22 collectors and 1 refinery as if it were a real game scenario. Position the mothership at the position three spawn, send carrier to the position three expansion, and later on send the refinery to the position one spawn (put 8 collectors on the mothership patch, and 7 collectors on the other patches).</t>
   </si>
   <si>
-    <t>Date: 7/22/18</t>
-  </si>
-  <si>
     <t>Build Time: 30</t>
   </si>
   <si>
-    <t>Build Time: 45</t>
-  </si>
-  <si>
     <t>Build Time: 40</t>
   </si>
   <si>
     <t>Cost: 400</t>
   </si>
   <si>
-    <t>Cost: 600</t>
-  </si>
-  <si>
     <t>Speed: 206</t>
   </si>
   <si>
@@ -85,18 +67,9 @@
     <t>Cost: 500</t>
   </si>
   <si>
-    <t>addAbility(NewShipType,"Harvest",1,250,10,300);</t>
-  </si>
-  <si>
-    <t>I was sloppy with seting up harvesting, could have had more ru's.</t>
-  </si>
-  <si>
     <t>Optimally build up to 14 collectors as if it were a real game scenario (build 4 collectors on each ship). Position the mothership at the position three spawn, send carrier to the position three expansion (put 7 collectors on each patch). For vaygr you'll have 15 collectors, one extra on mothership patch.</t>
   </si>
   <si>
-    <t>Date: 5/26/18</t>
-  </si>
-  <si>
     <t>Stats</t>
   </si>
   <si>
@@ -106,9 +79,6 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.3 Players Patch build 8 WIP</t>
-  </si>
-  <si>
     <t>HWR Harvesting</t>
   </si>
   <si>
@@ -121,22 +91,40 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Stats (v2.3 Build 8 WIP)</t>
-  </si>
-  <si>
-    <t>RU (v2.3 Build 8 WIP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date: </t>
-  </si>
-  <si>
     <t>Optimally build up to 10 collectors as if it were a real game scenario (build 2 collectors on each ship). Position the mothership at the position three spawn, send carrier to the position three expansion (put 5 collectors on each patch). For vaygr you'll have 11 collectors, one extra on mothership patch.</t>
   </si>
   <si>
     <t>Stats are from Homeworld Remastered as of:</t>
   </si>
   <si>
-    <t>Optimally build up to 18 collectors as if it were a real game scenario (build 6 collectors on each ship). Position the mothership at the position three spawn, send carrier to the position three expansion (put 9 collectors on each patch). For vaygr you'll have 19 collectors, one extra on mothership patch.</t>
+    <t>RU (v2.3 Build 9)</t>
+  </si>
+  <si>
+    <t>addAbility(NewShipType,"Harvest",1,250,10,400);</t>
+  </si>
+  <si>
+    <t>Actual Stats  (v2.3 Build 9)</t>
+  </si>
+  <si>
+    <t>Optimally build up to 18 collectors as if it were a real game scenario (build 6 collectors on each ship). Position the mothership at the position three spawn, send carrier to the position three expansion (put 9 collectors on each patch). For vaygr you'll have 19 collectors, one extra on mothership patch. Note, this is an over-saturation test and is not efficient.</t>
+  </si>
+  <si>
+    <t>Taii MS/CC is worse than Kus MS/CC.</t>
+  </si>
+  <si>
+    <t>Taii refinery is better than Kus refinery.</t>
+  </si>
+  <si>
+    <t>Vaygr's extra collector puts them in contention.</t>
+  </si>
+  <si>
+    <t>Vaygr are finally even on collectors in this test, and also Vaygr refineries are worse than Hiig.</t>
+  </si>
+  <si>
+    <t>Over-saturing is a really bad idea for HW1…</t>
+  </si>
+  <si>
+    <t>2.3 Players Patch build 9</t>
   </si>
 </sst>
 </file>
@@ -308,13 +296,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -346,7 +332,6 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -721,46 +706,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="100.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>29</v>
+      <c r="A1" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>10</v>
+      <c r="A2" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>27</v>
+      <c r="A4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="13">
-        <v>43303</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>28</v>
+      <c r="A5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="11">
+        <v>43329</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -781,301 +768,337 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" style="18" customWidth="1"/>
+    <col min="1" max="3" width="15.7109375" style="16" customWidth="1"/>
     <col min="4" max="5" width="15.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="59.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="6.85546875" style="1"/>
-    <col min="12" max="16384" width="6.85546875" style="18"/>
+    <col min="12" max="16384" width="6.85546875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18">
+        <v>10</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="2">
+        <v>21600</v>
+      </c>
+      <c r="E5" s="13">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20">
+        <v>20</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E6" s="14">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20">
         <v>30</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="3">
+        <v>68368</v>
+      </c>
+      <c r="E7" s="14">
+        <v>68368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22">
+        <v>40</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="4">
+        <v>91800</v>
+      </c>
+      <c r="E8" s="23">
+        <v>91800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="18">
+        <v>10</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20">
+        <v>20</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20">
+        <v>30</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22">
+        <v>40</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="18">
+        <v>10</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="2">
+        <v>22600</v>
+      </c>
+      <c r="E13" s="13">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20">
+        <v>20</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="3">
+        <v>49958</v>
+      </c>
+      <c r="E14" s="14">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20">
+        <v>30</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="3">
+        <v>78533</v>
+      </c>
+      <c r="E15" s="14">
+        <v>66113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22">
+        <v>40</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="4">
+        <v>106100</v>
+      </c>
+      <c r="E16" s="23">
+        <v>89500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="18">
+        <v>10</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="13"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20">
+        <v>20</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20">
+        <v>30</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22">
+        <v>40</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B25" s="18">
         <v>10</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22">
+      <c r="C25" s="18"/>
+      <c r="D25" s="2">
+        <v>24200</v>
+      </c>
+      <c r="E25" s="13">
+        <v>24200</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20">
         <v>20</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22">
+      <c r="C26" s="20"/>
+      <c r="D26" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E26" s="14">
+        <v>53200</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20">
         <v>30</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24">
+      <c r="C27" s="20"/>
+      <c r="D27" s="3">
+        <v>82370</v>
+      </c>
+      <c r="E27" s="14">
+        <v>82370</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22">
         <v>40</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="20">
-        <v>10</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22">
-        <v>20</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22">
-        <v>30</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24">
-        <v>40</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="25"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="20">
-        <v>10</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22">
-        <v>20</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22">
-        <v>30</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24">
-        <v>40</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="25"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="20">
-        <v>10</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="15"/>
-      <c r="G17" s="26"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22">
-        <v>20</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22">
-        <v>30</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24">
-        <v>40</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="25"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="20">
-        <v>10</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="15">
-        <v>24200</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22">
-        <v>20</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="16">
-        <v>53200</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="22">
-        <v>30</v>
-      </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="16">
-        <v>82370</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24">
-        <v>40</v>
-      </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="25">
+      <c r="C28" s="22"/>
+      <c r="D28" s="4">
+        <v>111718</v>
+      </c>
+      <c r="E28" s="23">
         <v>111718</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -1083,650 +1106,676 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="20">
+      <c r="A29" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="18">
         <v>10</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="15">
+      <c r="C29" s="18"/>
+      <c r="D29" s="2">
+        <v>25022</v>
+      </c>
+      <c r="E29" s="13">
         <v>24102</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="22">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20">
         <v>20</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="16">
+      <c r="C30" s="20"/>
+      <c r="D30" s="3">
+        <v>54839</v>
+      </c>
+      <c r="E30" s="14">
         <v>53636</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20">
+        <v>30</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="3">
+        <v>84664</v>
+      </c>
+      <c r="E31" s="14">
+        <v>83000</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22">
-        <v>30</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="16">
-        <v>83000</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
-      <c r="B32" s="24">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22">
         <v>40</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="25">
+      <c r="C32" s="22"/>
+      <c r="D32" s="4">
+        <v>113992</v>
+      </c>
+      <c r="E32" s="23">
         <v>112200</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G32" s="24" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="18">
         <v>10</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="15">
+      <c r="C33" s="18"/>
+      <c r="D33" s="2">
+        <v>24200</v>
+      </c>
+      <c r="E33" s="13">
         <v>23035</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="20">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="22">
+      <c r="C34" s="20"/>
+      <c r="D34" s="3">
+        <v>58700</v>
+      </c>
+      <c r="E34" s="14">
+        <v>53402</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="20">
+        <v>30</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="3">
+        <v>94200</v>
+      </c>
+      <c r="E35" s="14">
+        <v>83250</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="21"/>
+      <c r="B36" s="22">
+        <v>40</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="4">
+        <v>128317</v>
+      </c>
+      <c r="E36" s="23">
+        <v>113610</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="24"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="18">
+        <v>10</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="2">
+        <v>22356</v>
+      </c>
+      <c r="E37" s="13">
+        <v>22062</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="20">
         <v>20</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="16">
-        <v>53402</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="22">
+      <c r="C38" s="20"/>
+      <c r="D38" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E38" s="14">
+        <v>51500</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="20">
         <v>30</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="16">
-        <v>83250</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
-      <c r="B36" s="24">
+      <c r="C39" s="20"/>
+      <c r="D39" s="3">
+        <v>90336</v>
+      </c>
+      <c r="E39" s="14">
+        <v>81250</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="21"/>
+      <c r="B40" s="22">
         <v>40</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="25">
-        <v>113610</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="C40" s="22"/>
+      <c r="D40" s="4">
+        <v>122937</v>
+      </c>
+      <c r="E40" s="23">
+        <v>110500</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="18">
+        <v>10</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="2">
+        <v>25400</v>
+      </c>
+      <c r="E45" s="13">
+        <v>25400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="20">
+        <v>20</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E46" s="14">
+        <v>59600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="20">
+        <v>30</v>
+      </c>
+      <c r="C47" s="20"/>
+      <c r="D47" s="3">
+        <v>93200</v>
+      </c>
+      <c r="E47" s="14">
+        <v>93200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="21"/>
+      <c r="B48" s="22">
+        <v>40</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="4">
+        <v>126820</v>
+      </c>
+      <c r="E48" s="23">
+        <v>126820</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="18">
+        <v>10</v>
+      </c>
+      <c r="C49" s="18"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="13"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="20">
+        <v>20</v>
+      </c>
+      <c r="C50" s="20"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="14"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="19"/>
+      <c r="B51" s="20">
+        <v>30</v>
+      </c>
+      <c r="C51" s="20"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="14"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="21"/>
+      <c r="B52" s="22">
+        <v>40</v>
+      </c>
+      <c r="C52" s="22"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="23"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="18">
+        <v>10</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="2">
+        <v>22800</v>
+      </c>
+      <c r="E53" s="13">
+        <v>21500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="19"/>
+      <c r="B54" s="20">
+        <v>20</v>
+      </c>
+      <c r="C54" s="20"/>
+      <c r="D54" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E54" s="14">
+        <v>51750</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="19"/>
+      <c r="B55" s="20">
+        <v>30</v>
+      </c>
+      <c r="C55" s="20"/>
+      <c r="D55" s="3">
+        <v>102300</v>
+      </c>
+      <c r="E55" s="14">
+        <v>83528</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="21"/>
+      <c r="B56" s="22">
+        <v>40</v>
+      </c>
+      <c r="C56" s="22"/>
+      <c r="D56" s="4">
+        <v>141385</v>
+      </c>
+      <c r="E56" s="23">
+        <v>113250</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B57" s="18">
         <v>10</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="15">
-        <v>22062</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="C57" s="18"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="13"/>
+      <c r="G57" s="24"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="19"/>
+      <c r="B58" s="20">
         <v>20</v>
       </c>
-      <c r="G37" s="26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="22">
-        <v>20</v>
-      </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="16">
-        <v>51500</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="22">
+      <c r="C58" s="20"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="19"/>
+      <c r="B59" s="20">
         <v>30</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="16">
-        <v>81250</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24">
+      <c r="C59" s="20"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="14"/>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="21"/>
+      <c r="B60" s="22">
         <v>40</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="25">
-        <v>110500</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
+      <c r="C60" s="22"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="23"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="26"/>
+      <c r="D62" s="16"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B65" s="18">
         <v>10</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="15"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
-      <c r="B46" s="22">
-        <v>20</v>
-      </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="16"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
-      <c r="B47" s="22">
-        <v>30</v>
-      </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="16"/>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
-      <c r="B48" s="24">
-        <v>40</v>
-      </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="25"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="20">
-        <v>10</v>
-      </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="15"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
-      <c r="B50" s="22">
-        <v>20</v>
-      </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="16"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
-      <c r="B51" s="22">
-        <v>30</v>
-      </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="16"/>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
-      <c r="B52" s="24">
-        <v>40</v>
-      </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="25"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="20">
-        <v>10</v>
-      </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="15"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="22">
-        <v>20</v>
-      </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="16"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="22">
-        <v>30</v>
-      </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="16"/>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="23"/>
-      <c r="B56" s="24">
-        <v>40</v>
-      </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="25"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" s="20">
-        <v>10</v>
-      </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="15"/>
-      <c r="G57" s="26"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
-      <c r="B58" s="22">
-        <v>20</v>
-      </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="16"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
-      <c r="B59" s="22">
-        <v>30</v>
-      </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="16"/>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="23"/>
-      <c r="B60" s="24">
-        <v>40</v>
-      </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="25"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62" s="18"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="31"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" s="20">
-        <v>10</v>
-      </c>
-      <c r="C65" s="20"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="2">
         <v>28736</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E65" s="13">
         <v>28736</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="G65" s="24"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
-      <c r="B66" s="22">
+      <c r="A66" s="19"/>
+      <c r="B66" s="20">
         <v>20</v>
       </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="4">
+      <c r="C66" s="20"/>
+      <c r="D66" s="3">
         <v>74584</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E66" s="14">
         <v>74584</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
-      <c r="B67" s="22">
+      <c r="A67" s="19"/>
+      <c r="B67" s="20">
         <v>30</v>
       </c>
-      <c r="C67" s="22"/>
-      <c r="D67" s="4">
+      <c r="C67" s="20"/>
+      <c r="D67" s="3">
         <v>120704</v>
       </c>
-      <c r="E67" s="16">
+      <c r="E67" s="14">
         <v>120704</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
-      <c r="B68" s="24">
+      <c r="A68" s="21"/>
+      <c r="B68" s="22">
         <v>40</v>
       </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="6">
+      <c r="C68" s="22"/>
+      <c r="D68" s="4">
         <v>166538</v>
       </c>
-      <c r="E68" s="25">
+      <c r="E68" s="23">
         <v>166538</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" s="20">
+      <c r="A69" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="18">
         <v>10</v>
       </c>
-      <c r="C69" s="20"/>
+      <c r="C69" s="18"/>
       <c r="D69" s="2">
         <v>29346</v>
       </c>
-      <c r="E69" s="3">
-        <v>29360</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>16</v>
+      <c r="E69" s="13">
+        <v>28600</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
-      <c r="B70" s="22">
+      <c r="A70" s="19"/>
+      <c r="B70" s="20">
         <v>20</v>
       </c>
-      <c r="C70" s="22"/>
-      <c r="D70" s="4">
+      <c r="C70" s="20"/>
+      <c r="D70" s="3">
         <v>74738</v>
       </c>
-      <c r="E70" s="5">
-        <v>74862</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="27"/>
+      <c r="E70" s="14">
+        <v>72400</v>
+      </c>
+      <c r="G70" s="25"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="21"/>
-      <c r="B71" s="22">
+      <c r="A71" s="19"/>
+      <c r="B71" s="20">
         <v>30</v>
       </c>
-      <c r="C71" s="22"/>
-      <c r="D71" s="4">
+      <c r="C71" s="20"/>
+      <c r="D71" s="3">
         <v>119750</v>
       </c>
-      <c r="E71" s="5">
-        <v>120164</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>19</v>
+      <c r="E71" s="14">
+        <v>116344</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="23"/>
-      <c r="B72" s="24">
+      <c r="A72" s="21"/>
+      <c r="B72" s="22">
         <v>40</v>
       </c>
-      <c r="C72" s="24"/>
-      <c r="D72" s="6">
+      <c r="C72" s="22"/>
+      <c r="D72" s="4">
         <v>164898</v>
       </c>
-      <c r="E72" s="29">
-        <v>165276</v>
-      </c>
-      <c r="F72" s="26" t="s">
-        <v>6</v>
+      <c r="E72" s="23">
+        <v>160200</v>
+      </c>
+      <c r="G72" s="24" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B73" s="20">
+      <c r="B73" s="18">
         <v>10</v>
       </c>
-      <c r="C73" s="20"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="2">
         <v>23500</v>
       </c>
-      <c r="E73" s="3">
-        <v>24000</v>
-      </c>
-      <c r="F73" s="26" t="s">
-        <v>17</v>
+      <c r="E73" s="13">
+        <v>25100</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
-      <c r="B74" s="22">
+      <c r="A74" s="19"/>
+      <c r="B74" s="20">
         <v>20</v>
       </c>
-      <c r="C74" s="22"/>
-      <c r="D74" s="4">
+      <c r="C74" s="20"/>
+      <c r="D74" s="3">
         <v>77500</v>
       </c>
-      <c r="E74" s="5">
-        <v>73800</v>
-      </c>
-      <c r="F74" s="26" t="s">
-        <v>14</v>
+      <c r="E74" s="14">
+        <v>72100</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
-      <c r="B75" s="22">
+      <c r="A75" s="19"/>
+      <c r="B75" s="20">
         <v>30</v>
       </c>
-      <c r="C75" s="22"/>
-      <c r="D75" s="4">
+      <c r="C75" s="20"/>
+      <c r="D75" s="3">
         <v>133500</v>
       </c>
-      <c r="E75" s="5">
-        <v>123300</v>
-      </c>
-      <c r="F75" s="26" t="s">
-        <v>18</v>
+      <c r="E75" s="14">
+        <v>118275</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="23"/>
-      <c r="B76" s="24">
+      <c r="A76" s="21"/>
+      <c r="B76" s="22">
         <v>40</v>
       </c>
-      <c r="C76" s="24"/>
-      <c r="D76" s="6">
+      <c r="C76" s="22"/>
+      <c r="D76" s="4">
         <v>187500</v>
       </c>
-      <c r="E76" s="29">
-        <v>173100</v>
-      </c>
-      <c r="F76" s="26" t="s">
-        <v>5</v>
+      <c r="E76" s="23">
+        <v>165100</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="20">
+      <c r="B77" s="18">
         <v>10</v>
       </c>
-      <c r="C77" s="20"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="3">
-        <v>24000</v>
-      </c>
-      <c r="F77" s="26" t="s">
-        <v>17</v>
+      <c r="C77" s="18"/>
+      <c r="D77" s="2">
+        <v>20950</v>
+      </c>
+      <c r="E77" s="13">
+        <v>25100</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="21"/>
-      <c r="B78" s="22">
+      <c r="A78" s="19"/>
+      <c r="B78" s="20">
         <v>20</v>
       </c>
-      <c r="C78" s="22"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="5">
-        <v>73500</v>
-      </c>
-      <c r="F78" s="26" t="s">
-        <v>14</v>
+      <c r="C78" s="20"/>
+      <c r="D78" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E78" s="14">
+        <v>72350</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="21"/>
-      <c r="B79" s="22">
+      <c r="A79" s="19"/>
+      <c r="B79" s="20">
         <v>30</v>
       </c>
-      <c r="C79" s="22"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="5">
-        <v>124043</v>
-      </c>
-      <c r="F79" s="26" t="s">
-        <v>18</v>
+      <c r="C79" s="20"/>
+      <c r="D79" s="3">
+        <v>126453</v>
+      </c>
+      <c r="E79" s="14">
+        <v>119731</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="23"/>
-      <c r="B80" s="24">
+      <c r="A80" s="21"/>
+      <c r="B80" s="22">
         <v>40</v>
       </c>
-      <c r="C80" s="24"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="29">
-        <v>174000</v>
-      </c>
-      <c r="F80" s="26" t="s">
-        <v>9</v>
+      <c r="C80" s="22"/>
+      <c r="D80" s="4">
+        <v>178351</v>
+      </c>
+      <c r="E80" s="23">
+        <v>166600</v>
+      </c>
+      <c r="G80" s="24" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
